--- a/regions_data/Gazownictwo/data.xlsx
+++ b/regions_data/Gazownictwo/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Długość sieci gazowej</t>
   </si>
@@ -109,13 +109,17 @@
   <si>
     <t>Zużycie OGÓŁEM przez gospodarstwa domowe -&gt;</t>
   </si>
+  <si>
+    <t>Zużycie na odbiorcę</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -162,12 +166,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1363,7 +1368,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$K$2:$K$17</c:f>
+              <c:f>Arkusz1!$M$2:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1743,7 +1748,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$J$2:$J$17</c:f>
+              <c:f>Arkusz1!$K$2:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2513,7 +2518,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$N$2:$N$17</c:f>
+              <c:f>Arkusz1!$P$2:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2762,6 +2767,1387 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Zużycie gazu z sieci na mieszkańca [MWh]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dolnośląskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kujawsko-pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lubelskie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lubuskie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Łódzkie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Małopolskie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mazowieckie</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Opolskie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Podkarpackie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Podlaskie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Śląskie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Świętokrzyskie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Warmińsko-mazurskie</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wielkopolskie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Zachodniopomorskie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$K$2:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.2285552098586983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65134220609456883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78137731370469321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.172098201815728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61458323349850008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2929529595622291</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5706219370435266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69060745880034935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1579067503230107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39751056700209242</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95848227491956184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0173740341095929</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65739057740172391</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64433605477133482</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2035435334948463</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3119734923759685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6248-47D9-B64B-BA3EA9C968AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="48"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1501276944"/>
+        <c:axId val="1514278176"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Zużycie gazu z sieci [GWh]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dolnośląskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kujawsko-pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lubelskie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lubuskie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Łódzkie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Małopolskie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mazowieckie</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Opolskie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Podkarpackie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Podlaskie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Śląskie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Świętokrzyskie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Warmińsko-mazurskie</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wielkopolskie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Zachodniopomorskie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$G$2:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3573.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1361.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1678.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1195.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4355.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8378.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>691.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2465.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>473.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2206.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4665.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>830.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>930.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4179.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2250.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6248-47D9-B64B-BA3EA9C968AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1358601024"/>
+        <c:axId val="1405579360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1501276944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514278176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1514278176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Zużycie gazu z</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> sieci na mieszkańca [MWh]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1501276944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1405579360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Zużycie</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> gazu z sieci [GWh]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358601024"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1358601024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1405579360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Długość sieci gazowej na mieszkańca [m]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dolnośląskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kujawsko-pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lubelskie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lubuskie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Łódzkie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Małopolskie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mazowieckie</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Opolskie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Podkarpackie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Podlaskie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Śląskie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Świętokrzyskie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Warmińsko-mazurskie</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wielkopolskie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Zachodniopomorskie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3.1327951556443847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1700561533249885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0297130107563932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0164381896821251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7378848433152192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8916224509668869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9876965292601327</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5462153472320748</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.995687086197691</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3235809845979338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8689744087621745</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6860837641443687</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3988929492010613</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0807262215826263</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2630851594736932</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1936399656995818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E715-4B1C-B990-4D2DBC743413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="48"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1501276944"/>
+        <c:axId val="1514278176"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Długość sieci gazowej [km]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dolnośląskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kujawsko-pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lubelskie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lubuskie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Łódzkie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Małopolskie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mazowieckie</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Opolskie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Podkarpackie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Podlaskie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Śląskie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Świętokrzyskie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Warmińsko-mazurskie</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wielkopolskie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Zachodniopomorskie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>9111.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4535.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8654.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4351.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23213.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15937.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2548.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19153.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1577.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6604.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16904.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4293.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3004.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14803.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7193.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E715-4B1C-B990-4D2DBC743413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1358601024"/>
+        <c:axId val="1405579360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1501276944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514278176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1514278176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Długość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> sieci gazowej na mieszkańca [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1501276944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1405579360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Długość sieci gazowej </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t>[km]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358601024"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1358601024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1405579360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3086,6 +4472,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6607,20 +8073,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>121921</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>2771</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1866901</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>63731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>739141</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85898</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1714501</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>146858</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6648,15 +9120,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>365761</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>53008</xdr:rowOff>
+      <xdr:colOff>1524001</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>129208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27830</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>145773</xdr:rowOff>
+      <xdr:colOff>1186070</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>54333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6689,7 +9161,7 @@
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1404257</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
@@ -6719,13 +9191,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>109946</xdr:rowOff>
@@ -6761,7 +9233,7 @@
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
@@ -6792,15 +9264,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:colOff>1840230</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6827,16 +9299,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6856,6 +9328,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1437640</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Wykres 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E9EE97-1D7A-42B2-B412-64B3604A50E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1445260</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Wykres 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA2C59B-87E0-4ED9-BC99-8FF985AA71F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7161,10 +9707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7177,14 +9723,16 @@
     <col min="7" max="7" width="17.44140625"/>
     <col min="8" max="8" width="39.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.5546875"/>
-    <col min="13" max="13" width="21.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" customWidth="1"/>
-    <col min="15" max="1029" width="11.5546875"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" customWidth="1"/>
+    <col min="13" max="14" width="11.5546875"/>
+    <col min="15" max="15" width="21.33203125" customWidth="1"/>
+    <col min="16" max="16" width="72.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="1031" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7209,20 +9757,26 @@
       <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7252,23 +9806,27 @@
       <c r="I2">
         <v>2908457</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <f>G2/I2*1000</f>
         <v>1.2285552098586983</v>
       </c>
-      <c r="K2">
+      <c r="L2" s="3">
+        <f>G2/F2</f>
+        <v>5.2686523149513409</v>
+      </c>
+      <c r="M2">
         <f>I2/F2/1000</f>
         <v>4.2884945443821882</v>
       </c>
-      <c r="M2" s="2">
+      <c r="O2" s="2">
         <v>11585</v>
       </c>
-      <c r="N2" s="1">
-        <f>M2/I2*1000</f>
+      <c r="P2" s="1">
+        <f>O2/I2*1000</f>
         <v>3.9832117167281487</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7298,23 +9856,27 @@
       <c r="I3">
         <v>2089992</v>
       </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J17" si="2">G3/I3*1000</f>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K17" si="2">G3/I3*1000</f>
         <v>0.65134220609456883</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K17" si="3">I3/F3/1000</f>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L17" si="3">G3/F3</f>
+        <v>4.0696562032884902</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M17" si="4">I3/F3/1000</f>
         <v>6.2481076233183854</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O3" s="2">
         <v>4414</v>
       </c>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N17" si="4">M3/I3*1000</f>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P17" si="5">O3/I3*1000</f>
         <v>2.1119698065829917</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -7344,23 +9906,27 @@
       <c r="I4">
         <v>2147746</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <f t="shared" si="2"/>
         <v>0.78137731370469321</v>
       </c>
-      <c r="K4">
+      <c r="L4" s="3">
         <f t="shared" si="3"/>
+        <v>5.2641154328732744</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
         <v>6.7369698870765369</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O4" s="2">
         <v>5441</v>
       </c>
-      <c r="N4" s="1">
-        <f t="shared" si="4"/>
+      <c r="P4" s="1">
+        <f t="shared" si="5"/>
         <v>2.5333535716048359</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -7390,23 +9956,27 @@
       <c r="I5">
         <v>1020307</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <f t="shared" si="2"/>
         <v>1.172098201815728</v>
       </c>
-      <c r="K5">
+      <c r="L5" s="3">
         <f t="shared" si="3"/>
+        <v>6.1995852773457756</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
         <v>5.2893053395541729</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>3877</v>
       </c>
-      <c r="N5" s="1">
-        <f t="shared" si="4"/>
+      <c r="P5" s="1">
+        <f t="shared" si="5"/>
         <v>3.7998367158120057</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7436,23 +10006,27 @@
       <c r="I6">
         <v>2504136</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <f t="shared" si="2"/>
         <v>0.61458323349850008</v>
       </c>
-      <c r="K6">
+      <c r="L6" s="3">
         <f t="shared" si="3"/>
+        <v>3.6365784499054823</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
         <v>5.9171455576559548</v>
       </c>
-      <c r="M6" s="2">
+      <c r="O6" s="2">
         <v>4990</v>
       </c>
-      <c r="N6" s="1">
-        <f t="shared" si="4"/>
+      <c r="P6" s="1">
+        <f t="shared" si="5"/>
         <v>1.9927032717072874</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -7482,23 +10056,27 @@
       <c r="I7">
         <v>3368336</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="2"/>
         <v>1.2929529595622291</v>
       </c>
-      <c r="K7">
+      <c r="L7" s="3">
         <f t="shared" si="3"/>
+        <v>6.1055656806392831</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
         <v>4.7221870180849574</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>14120</v>
       </c>
-      <c r="N7" s="1">
-        <f t="shared" si="4"/>
+      <c r="P7" s="1">
+        <f t="shared" si="5"/>
         <v>4.1919808475163993</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -7528,23 +10106,27 @@
       <c r="I8">
         <v>5334511</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <f t="shared" si="2"/>
         <v>1.5706219370435266</v>
       </c>
-      <c r="K8">
+      <c r="L8" s="3">
         <f t="shared" si="3"/>
+        <v>7.0460852745774121</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
         <v>4.4861752585989407</v>
       </c>
-      <c r="M8" s="2">
+      <c r="O8" s="2">
         <v>27166</v>
       </c>
-      <c r="N8" s="1">
-        <f t="shared" si="4"/>
+      <c r="P8" s="1">
+        <f t="shared" si="5"/>
         <v>5.092500512230643</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -7574,23 +10156,27 @@
       <c r="I9">
         <v>1000858</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <f t="shared" si="2"/>
         <v>0.69060745880034935</v>
       </c>
-      <c r="K9">
+      <c r="L9" s="3">
         <f t="shared" si="3"/>
+        <v>4.4450160771704184</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
         <v>6.4363858520900319</v>
       </c>
-      <c r="M9" s="2">
+      <c r="O9" s="2">
         <v>2241</v>
       </c>
-      <c r="N9" s="1">
-        <f t="shared" si="4"/>
+      <c r="P9" s="1">
+        <f t="shared" si="5"/>
         <v>2.2390788703292577</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -7620,23 +10206,27 @@
       <c r="I10">
         <v>2129187</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>1.1579067503230107</v>
       </c>
-      <c r="K10">
+      <c r="L10" s="3">
         <f t="shared" si="3"/>
+        <v>5.2477650063856958</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
         <v>4.5321136653895273</v>
       </c>
-      <c r="M10" s="2">
+      <c r="O10" s="2">
         <v>7994</v>
       </c>
-      <c r="N10" s="1">
-        <f t="shared" si="4"/>
+      <c r="P10" s="1">
+        <f t="shared" si="5"/>
         <v>3.7544846929837541</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -7666,23 +10256,27 @@
       <c r="I11">
         <v>1191918</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>0.39751056700209242</v>
       </c>
-      <c r="K11">
+      <c r="L11" s="3">
         <f t="shared" si="3"/>
+        <v>4.0357751277683134</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
         <v>10.152623509369676</v>
       </c>
-      <c r="M11" s="2">
+      <c r="O11" s="2">
         <v>1536</v>
       </c>
-      <c r="N11" s="1">
-        <f t="shared" si="4"/>
+      <c r="P11" s="1">
+        <f t="shared" si="5"/>
         <v>1.2886792547809496</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -7712,23 +10306,27 @@
       <c r="I12">
         <v>2302077</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="2"/>
         <v>0.95848227491956184</v>
       </c>
-      <c r="K12">
+      <c r="L12" s="3">
         <f t="shared" si="3"/>
+        <v>5.4819875776397513</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
         <v>5.7194459627329186</v>
       </c>
-      <c r="M12" s="2">
+      <c r="O12" s="2">
         <v>7154</v>
       </c>
-      <c r="N12" s="1">
-        <f t="shared" si="4"/>
+      <c r="P12" s="1">
+        <f t="shared" si="5"/>
         <v>3.1076284589959413</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -7758,23 +10356,27 @@
       <c r="I13">
         <v>4585924</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="2"/>
         <v>1.0173740341095929</v>
       </c>
-      <c r="K13">
+      <c r="L13" s="3">
         <f t="shared" si="3"/>
+        <v>4.3940478432849881</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
         <v>4.3190092296100966</v>
       </c>
-      <c r="M13" s="2">
+      <c r="O13" s="2">
         <v>15127</v>
       </c>
-      <c r="N13" s="1">
-        <f t="shared" si="4"/>
+      <c r="P13" s="1">
+        <f t="shared" si="5"/>
         <v>3.2985718908555834</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -7804,23 +10406,27 @@
       <c r="I14">
         <v>1263176</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <f t="shared" si="2"/>
         <v>0.65739057740172391</v>
       </c>
-      <c r="K14">
+      <c r="L14" s="3">
         <f t="shared" si="3"/>
+        <v>4.7451428571428567</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
         <v>7.2181485714285722</v>
       </c>
-      <c r="M14" s="2">
+      <c r="O14" s="2">
         <v>2692</v>
       </c>
-      <c r="N14" s="1">
-        <f t="shared" si="4"/>
+      <c r="P14" s="1">
+        <f t="shared" si="5"/>
         <v>2.1311361203822745</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -7850,23 +10456,27 @@
       <c r="I15">
         <v>1443967</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <f t="shared" si="2"/>
         <v>0.64433605477133482</v>
       </c>
-      <c r="K15">
+      <c r="L15" s="3">
         <f t="shared" si="3"/>
+        <v>4.7566462167689165</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
         <v>7.3822443762781189</v>
       </c>
-      <c r="M15" s="2">
+      <c r="O15" s="2">
         <v>3017</v>
       </c>
-      <c r="N15" s="1">
-        <f t="shared" si="4"/>
+      <c r="P15" s="1">
+        <f t="shared" si="5"/>
         <v>2.0893829291112609</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -7896,23 +10506,27 @@
       <c r="I16">
         <v>3472579</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <f t="shared" si="2"/>
         <v>1.2035435334948463</v>
       </c>
-      <c r="K16">
+      <c r="L16" s="3">
         <f t="shared" si="3"/>
+        <v>7.3220042046250873</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
         <v>6.0837053258584444</v>
       </c>
-      <c r="M16" s="2">
+      <c r="O16" s="2">
         <v>13551</v>
       </c>
-      <c r="N16" s="1">
-        <f t="shared" si="4"/>
+      <c r="P16" s="1">
+        <f t="shared" si="5"/>
         <v>3.9022870322028669</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -7942,19 +10556,23 @@
       <c r="I17">
         <v>1715431</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <f t="shared" si="2"/>
         <v>1.3119734923759685</v>
       </c>
-      <c r="K17">
+      <c r="L17" s="3">
         <f t="shared" si="3"/>
+        <v>5.9872306464485234</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
         <v>4.5635301942005855</v>
       </c>
-      <c r="M17" s="2">
+      <c r="O17" s="2">
         <v>7297</v>
       </c>
-      <c r="N17" s="1">
-        <f t="shared" si="4"/>
+      <c r="P17" s="1">
+        <f t="shared" si="5"/>
         <v>4.25374147954654</v>
       </c>
     </row>
